--- a/MyCPUOps.xlsx
+++ b/MyCPUOps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccslon\Documents\bit16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccslon\Documents\GitHub\bit16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E1C6D-81D0-4FC2-B09C-0AB5991ABC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9AE897-4CD1-4742-AB45-12C2F630168E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="4" xr2:uid="{436575E9-B0FF-40E5-AD57-342EB948A26D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{436575E9-B0FF-40E5-AD57-342EB948A26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bit16Inst" sheetId="1" r:id="rId1"/>
@@ -999,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1032,18 +1032,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1067,7 +1055,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1077,18 +1064,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1100,15 +1106,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1694,25 +1693,25 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="12" t="s">
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
       <c r="T5" s="4"/>
       <c r="U5" s="11" t="s">
         <v>33</v>
@@ -1818,25 +1817,25 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="12" t="s">
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
       <c r="T7" s="4"/>
       <c r="U7" s="11" t="s">
         <v>33</v>
@@ -1942,27 +1941,27 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="12" t="s">
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="12" t="s">
+      <c r="O9" s="41"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
       <c r="T9" s="4"/>
       <c r="U9" s="11" t="s">
         <v>33</v>
@@ -2057,27 +2056,27 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="12" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="12" t="s">
+      <c r="O11" s="41"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="4"/>
       <c r="U11" s="11" t="s">
         <v>33</v>
@@ -2185,11 +2184,11 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
       <c r="T13" s="4"/>
       <c r="U13" s="11" t="s">
         <v>33</v>
@@ -2281,21 +2280,21 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="12" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="12" t="s">
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="42"/>
       <c r="T15" s="4"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
@@ -2340,23 +2339,23 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="12" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="12" t="s">
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
       <c r="T16" s="4"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -2403,21 +2402,21 @@
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="12" t="s">
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="12" t="s">
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="42"/>
       <c r="T17" s="4"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -2462,23 +2461,23 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="12" t="s">
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="12" t="s">
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
       <c r="T18" s="4"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -2556,23 +2555,23 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="12" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="14"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
       <c r="T20" s="4"/>
       <c r="U20" s="2" t="s">
         <v>34</v>
@@ -3295,19 +3294,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="J11:M11"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:S20"/>
     <mergeCell ref="G5:J5"/>
@@ -3324,6 +3310,19 @@
     <mergeCell ref="N16:P16"/>
     <mergeCell ref="Q16:S16"/>
     <mergeCell ref="I18:M18"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3334,8 +3333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58059C87-0DCD-46B0-8AF9-FC4145BDB95D}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3346,10 +3345,10 @@
     <col min="20" max="20" width="1.81640625" customWidth="1"/>
     <col min="21" max="21" width="5.08984375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -3434,13 +3433,13 @@
         <v>43</v>
       </c>
       <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
         <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>41</v>
       </c>
       <c r="Z2" t="s">
         <v>39</v>
@@ -3532,25 +3531,25 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="G4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="12" t="s">
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="42"/>
       <c r="U4" s="1">
         <v>0</v>
       </c>
@@ -3560,11 +3559,11 @@
       <c r="W4" s="1">
         <v>0</v>
       </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
@@ -3604,25 +3603,25 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="12" t="s">
+      <c r="G5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="12" t="s">
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="14"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
       <c r="U5" s="1">
         <v>0</v>
       </c>
@@ -3630,13 +3629,13 @@
         <v>1</v>
       </c>
       <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -3650,11 +3649,11 @@
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="1"/>
-        <v>0101000</v>
+        <v>0110000</v>
       </c>
       <c r="AE5" t="str">
         <f t="shared" si="2"/>
-        <v>010 0101000</v>
+        <v>010 0110000</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
@@ -3676,27 +3675,27 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="G6" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
       <c r="U6" s="1">
         <v>0</v>
       </c>
@@ -3704,13 +3703,13 @@
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
         <v>1</v>
@@ -3724,11 +3723,11 @@
       </c>
       <c r="AC6" t="str">
         <f t="shared" si="1"/>
-        <v>0110010</v>
+        <v>0100110</v>
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="2"/>
-        <v>011 0110010</v>
+        <v>011 0100110</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -3750,27 +3749,27 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="12" t="s">
+      <c r="G7" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="12" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="12" t="s">
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
       <c r="U7" s="1">
         <v>0</v>
       </c>
@@ -3778,10 +3777,10 @@
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>1</v>
@@ -3798,11 +3797,11 @@
       </c>
       <c r="AC7" t="str">
         <f t="shared" si="1"/>
-        <v>0110110</v>
+        <v>0101110</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="2"/>
-        <v>100 0110110</v>
+        <v>100 0101110</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
@@ -3836,25 +3835,25 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
       <c r="U8" s="1">
         <v>0</v>
       </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
-      <c r="W8" s="1">
-        <v>0</v>
+      <c r="W8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>36</v>
+      <c r="Y8" s="1">
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -3958,23 +3957,23 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="12" t="s">
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
       <c r="U10" s="1">
         <v>1</v>
       </c>
@@ -4011,6 +4010,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:S10"/>
     <mergeCell ref="Q8:S8"/>
@@ -4022,15 +4027,9 @@
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="Q5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="U3:AA10">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4047,7 +4046,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B743C46F-0734-4F43-A44B-B5864DF8BFEE}">
-  <dimension ref="B2:AA32"/>
+  <dimension ref="B2:Z32"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J9" sqref="J9:L9"/>
@@ -4063,529 +4062,521 @@
     <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B2" s="48"/>
-      <c r="C2" s="47">
+    <row r="2" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B2" s="37"/>
+      <c r="C2" s="36">
         <v>15</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="36">
         <v>14</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="36">
         <v>13</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="36">
         <v>12</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="36">
         <v>11</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="36">
         <v>10</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="36">
         <v>9</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="36">
         <v>8</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="36">
         <v>7</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="36">
         <v>6</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="36">
         <v>5</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="36">
         <v>4</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="36">
         <v>3</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="36">
         <v>2</v>
       </c>
-      <c r="Q2" s="47">
-        <v>1</v>
-      </c>
-      <c r="R2" s="47">
-        <v>0</v>
-      </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="X2" s="19" t="s">
+      <c r="Q2" s="36">
+        <v>1</v>
+      </c>
+      <c r="R2" s="36">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="X2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Y2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B3" s="49">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41">
-        <v>0</v>
-      </c>
-      <c r="D3" s="41">
-        <v>0</v>
-      </c>
-      <c r="E3" s="41">
-        <v>0</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="48" t="s">
+    <row r="3" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="31" t="s">
+      <c r="X3" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AA3" s="33"/>
-    </row>
-    <row r="4" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B4" s="49">
-        <v>1</v>
-      </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0</v>
-      </c>
-      <c r="E4" s="41">
-        <v>1</v>
-      </c>
-      <c r="F4" s="42" t="s">
+    </row>
+    <row r="4" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="38">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="43" t="s">
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="43" t="s">
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="48" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="35">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="21" t="s">
+      <c r="X4" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="33"/>
-    </row>
-    <row r="5" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="49">
+      <c r="Z4" s="44"/>
+    </row>
+    <row r="5" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
-        <v>1</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0</v>
-      </c>
-      <c r="F5" s="42" t="s">
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="43" t="s">
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="48" t="s">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="36">
+      <c r="X5" s="31">
         <v>2</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="33"/>
-    </row>
-    <row r="6" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B6" s="49">
+      <c r="Z5" s="44"/>
+    </row>
+    <row r="6" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B6" s="38">
         <v>3</v>
       </c>
-      <c r="C6" s="41">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="41">
-        <v>1</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42" t="s">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="48" t="s">
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="30">
         <v>3</v>
       </c>
-      <c r="Y6" s="21" t="s">
+      <c r="Y6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="33"/>
-    </row>
-    <row r="7" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B7" s="49">
+      <c r="Z6" s="44"/>
+    </row>
+    <row r="7" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B7" s="38">
         <v>4</v>
       </c>
-      <c r="C7" s="41">
-        <v>1</v>
-      </c>
-      <c r="D7" s="41">
-        <v>0</v>
-      </c>
-      <c r="E7" s="41">
-        <v>0</v>
-      </c>
-      <c r="F7" s="42" t="s">
+      <c r="C7" s="34">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43" t="s">
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="43" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="43" t="s">
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="48" t="s">
+      <c r="Q7" s="46"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="36">
+      <c r="X7" s="31">
         <v>4</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="33"/>
-    </row>
-    <row r="8" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B8" s="49">
+      <c r="Z7" s="44"/>
+    </row>
+    <row r="8" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B8" s="38">
         <v>5</v>
       </c>
-      <c r="C8" s="41">
-        <v>1</v>
-      </c>
-      <c r="D8" s="41">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41">
-        <v>1</v>
-      </c>
-      <c r="F8" s="41" t="s">
+      <c r="C8" s="34">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>1</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="43" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="48" t="s">
+      <c r="Q8" s="46"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="30">
         <v>5</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="Z8" s="39" t="s">
+      <c r="Z8" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="AA8" s="33"/>
-    </row>
-    <row r="9" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="49">
+    </row>
+    <row r="9" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B9" s="38">
         <v>6</v>
       </c>
-      <c r="C9" s="41">
-        <v>1</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1</v>
-      </c>
-      <c r="E9" s="41">
-        <v>0</v>
-      </c>
-      <c r="F9" s="41" t="s">
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="41">
-        <v>0</v>
-      </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="43" t="s">
+      <c r="G9" s="34">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="43" t="s">
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="48" t="s">
+      <c r="Q9" s="46"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="X9" s="36">
+      <c r="X9" s="31">
         <v>6</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="Z9" s="40" t="s">
+      <c r="Z9" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="AA9" s="33"/>
-    </row>
-    <row r="10" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B10" s="49">
+    </row>
+    <row r="10" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B10" s="38">
         <v>6</v>
       </c>
-      <c r="C10" s="41">
-        <v>1</v>
-      </c>
-      <c r="D10" s="41">
-        <v>1</v>
-      </c>
-      <c r="E10" s="41">
-        <v>0</v>
-      </c>
-      <c r="F10" s="41" t="s">
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="41">
-        <v>1</v>
-      </c>
-      <c r="H10" s="43" t="s">
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+      <c r="H10" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="43" t="s">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="N10" s="44"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="43" t="s">
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="48" t="s">
+      <c r="Q10" s="46"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="30">
         <v>7</v>
       </c>
-      <c r="Y10" s="21" t="s">
+      <c r="Y10" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="Z10" s="39" t="s">
+      <c r="Z10" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="AA10" s="33"/>
-    </row>
-    <row r="11" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B11" s="49">
+    </row>
+    <row r="11" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B11" s="38">
         <v>7</v>
       </c>
-      <c r="C11" s="41">
-        <v>1</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1</v>
-      </c>
-      <c r="E11" s="41">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="43" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="48" t="s">
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="48"/>
-      <c r="C12" s="47">
+    <row r="12" spans="2:26" ht="21" x14ac:dyDescent="0.5">
+      <c r="B12" s="37"/>
+      <c r="C12" s="36">
         <v>15</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="36">
         <v>14</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="36">
         <v>13</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="36">
         <v>12</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="36">
         <v>11</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="36">
         <v>10</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="36">
         <v>9</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="36">
         <v>8</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="36">
         <v>7</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="36">
         <v>6</v>
       </c>
-      <c r="M12" s="47">
+      <c r="M12" s="36">
         <v>5</v>
       </c>
-      <c r="N12" s="47">
+      <c r="N12" s="36">
         <v>4</v>
       </c>
-      <c r="O12" s="47">
+      <c r="O12" s="36">
         <v>3</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="36">
         <v>2</v>
       </c>
-      <c r="Q12" s="47">
-        <v>1</v>
-      </c>
-      <c r="R12" s="47">
-        <v>0</v>
-      </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="Q12" s="36">
+        <v>1</v>
+      </c>
+      <c r="R12" s="36">
+        <v>0</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C14" s="4">
         <v>15</v>
       </c>
@@ -4635,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C15" s="3">
         <v>0</v>
       </c>
@@ -4659,7 +4650,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C16" s="4">
         <v>15</v>
       </c>
@@ -4719,25 +4710,25 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="12" t="s">
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C18" s="4">
@@ -4799,25 +4790,25 @@
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12" t="s">
+      <c r="F19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="12" t="s">
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C20" s="4">
@@ -4879,27 +4870,27 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15" t="s">
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15" t="s">
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C22" s="4">
@@ -4961,27 +4952,27 @@
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="12" t="s">
+      <c r="F23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="12" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="12" t="s">
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C24" s="4">
@@ -5055,11 +5046,11 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="12" t="s">
+      <c r="P25" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C26" s="4">
@@ -5129,21 +5120,21 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="12" t="s">
+      <c r="K27" s="41"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="12" t="s">
+      <c r="N27" s="41"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C28" s="3">
@@ -5161,23 +5152,23 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="12" t="s">
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="12" t="s">
+      <c r="N28" s="41"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C29" s="3">
@@ -5197,21 +5188,21 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="12" t="s">
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="12" t="s">
+      <c r="N29" s="41"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C30" s="3">
@@ -5229,23 +5220,23 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="12" t="s">
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="12" t="s">
+      <c r="N30" s="41"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="42"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C31" s="4">
@@ -5307,49 +5298,40 @@
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12" t="s">
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:R32"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
     <mergeCell ref="Z3:Z7"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="M17:O17"/>
@@ -5366,20 +5348,29 @@
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="P9:R9"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:R32"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5412,423 +5403,423 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="Q2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="A3" s="16">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="17"/>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="13"/>
+      <c r="H3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="L3" s="34">
-        <v>0</v>
-      </c>
-      <c r="M3" s="31" t="s">
+      <c r="J3" s="13"/>
+      <c r="L3" s="29">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="Q3" s="20" t="s">
+      <c r="O3" s="13"/>
+      <c r="Q3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="S3" s="17"/>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="L4" s="35">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21" t="s">
+      <c r="F4" s="14"/>
+      <c r="L4" s="30">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="Q4" s="21" t="s">
+      <c r="O4" s="14"/>
+      <c r="Q4" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="S4" s="18"/>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
-        <v>1</v>
-      </c>
-      <c r="B5" s="24">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="17"/>
-      <c r="L5" s="36">
+      <c r="E5" s="26"/>
+      <c r="F5" s="13"/>
+      <c r="L5" s="31">
         <v>2</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="Q5" s="20" t="s">
+      <c r="O5" s="13"/>
+      <c r="Q5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="S5" s="17"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="L6" s="35">
+      <c r="F6" s="14"/>
+      <c r="L6" s="30">
         <v>3</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="Q6" s="21" t="s">
+      <c r="O6" s="14"/>
+      <c r="Q6" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="R6" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="18"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="17"/>
-      <c r="L7" s="36">
+      <c r="E7" s="26"/>
+      <c r="F7" s="13"/>
+      <c r="L7" s="31">
         <v>4</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="17"/>
+      <c r="O7" s="13"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="18"/>
-      <c r="L8" s="35">
+      <c r="E8" s="25"/>
+      <c r="F8" s="14"/>
+      <c r="L8" s="30">
         <v>5</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="18"/>
+      <c r="O8" s="14"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+      <c r="A9" s="16">
         <v>3</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>6</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="17"/>
-      <c r="L9" s="36">
+      <c r="E9" s="26"/>
+      <c r="F9" s="13"/>
+      <c r="L9" s="31">
         <v>6</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="17"/>
+      <c r="O9" s="13"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23">
+      <c r="A10" s="17"/>
+      <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="L10" s="35">
+      <c r="F10" s="14"/>
+      <c r="L10" s="30">
         <v>7</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="N10" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="18"/>
+      <c r="O10" s="14"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>8</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="21">
+      <c r="A12" s="17">
         <v>5</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="19">
         <v>10</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="24">
+      <c r="A13" s="16"/>
+      <c r="B13" s="20">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="21">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="19">
         <v>12</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="17"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="21">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="19">
         <v>14</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="18"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="24">
+      <c r="A17" s="16"/>
+      <c r="B17" s="20">
         <v>15</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5840,7 +5831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8DF124-27C2-4F2C-BB90-946B0FCEB3C7}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -5850,873 +5841,887 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="47">
+      <c r="B2" s="36">
         <v>15</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="36">
         <v>14</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="36">
         <v>13</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="36">
         <v>12</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="36">
         <v>11</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="36">
         <v>10</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="36">
         <v>9</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="36">
         <v>8</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="36">
         <v>7</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="36">
         <v>6</v>
       </c>
-      <c r="L2" s="47">
+      <c r="L2" s="36">
         <v>5</v>
       </c>
-      <c r="M2" s="47">
+      <c r="M2" s="36">
         <v>4</v>
       </c>
-      <c r="N2" s="47">
+      <c r="N2" s="36">
         <v>3</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="36">
         <v>2</v>
       </c>
-      <c r="P2" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="47">
+      <c r="P2" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="41">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41">
-        <v>0</v>
-      </c>
-      <c r="D3" s="41">
-        <v>0</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
     </row>
     <row r="4" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="47">
+      <c r="B5" s="36">
         <v>15</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="36">
         <v>14</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="36">
         <v>13</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="36">
         <v>12</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="36">
         <v>11</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="36">
         <v>10</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="36">
         <v>9</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="36">
         <v>8</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="36">
         <v>7</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="36">
         <v>6</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="36">
         <v>5</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="36">
         <v>4</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="36">
         <v>3</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="36">
         <v>2</v>
       </c>
-      <c r="P5" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="47">
+      <c r="P5" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="41">
-        <v>0</v>
-      </c>
-      <c r="C6" s="41">
-        <v>0</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1</v>
-      </c>
-      <c r="E6" s="42" t="s">
+      <c r="B6" s="34">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="43" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="43" t="s">
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="45"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="47"/>
     </row>
     <row r="7" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="47">
+      <c r="B8" s="36">
         <v>15</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="36">
         <v>14</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="36">
         <v>13</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="36">
         <v>12</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="36">
         <v>11</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="36">
         <v>10</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="36">
         <v>9</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="36">
         <v>8</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="36">
         <v>7</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="36">
         <v>6</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="36">
         <v>5</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="36">
         <v>4</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="36">
         <v>3</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="36">
         <v>2</v>
       </c>
-      <c r="P8" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="47">
+      <c r="P8" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="41">
-        <v>0</v>
-      </c>
-      <c r="C9" s="41">
-        <v>1</v>
-      </c>
-      <c r="D9" s="41">
-        <v>0</v>
-      </c>
-      <c r="E9" s="42" t="s">
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43" t="s">
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="43" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="47">
+      <c r="B11" s="36">
         <v>15</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="36">
         <v>14</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="36">
         <v>13</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="36">
         <v>12</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="36">
         <v>11</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="36">
         <v>10</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="36">
         <v>9</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="36">
         <v>8</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="36">
         <v>7</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="36">
         <v>6</v>
       </c>
-      <c r="L11" s="47">
+      <c r="L11" s="36">
         <v>5</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="36">
         <v>4</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="36">
         <v>3</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="36">
         <v>2</v>
       </c>
-      <c r="P11" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="47">
+      <c r="P11" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="41">
-        <v>0</v>
-      </c>
-      <c r="C12" s="41">
-        <v>1</v>
-      </c>
-      <c r="D12" s="41">
-        <v>1</v>
-      </c>
-      <c r="E12" s="42" t="s">
+      <c r="B12" s="34">
+        <v>0</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42" t="s">
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42" t="s">
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="47">
+      <c r="B14" s="36">
         <v>15</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="36">
         <v>14</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="36">
         <v>13</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="36">
         <v>12</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="36">
         <v>11</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="36">
         <v>9</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="36">
         <v>8</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="36">
         <v>7</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="36">
         <v>6</v>
       </c>
-      <c r="L14" s="47">
+      <c r="L14" s="36">
         <v>5</v>
       </c>
-      <c r="M14" s="47">
+      <c r="M14" s="36">
         <v>4</v>
       </c>
-      <c r="N14" s="47">
+      <c r="N14" s="36">
         <v>3</v>
       </c>
-      <c r="O14" s="47">
+      <c r="O14" s="36">
         <v>2</v>
       </c>
-      <c r="P14" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="47">
+      <c r="P14" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="41">
-        <v>1</v>
-      </c>
-      <c r="C15" s="41">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41">
-        <v>0</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="43" t="s">
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="43" t="s">
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="45"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="47">
+      <c r="B17" s="36">
         <v>15</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="36">
         <v>14</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="36">
         <v>13</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="36">
         <v>12</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="36">
         <v>11</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="36">
         <v>10</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="36">
         <v>9</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="36">
         <v>8</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="36">
         <v>7</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="36">
         <v>6</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="36">
         <v>5</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="36">
         <v>4</v>
       </c>
-      <c r="N17" s="47">
+      <c r="N17" s="36">
         <v>3</v>
       </c>
-      <c r="O17" s="47">
+      <c r="O17" s="36">
         <v>2</v>
       </c>
-      <c r="P17" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="47">
+      <c r="P17" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="41">
-        <v>1</v>
-      </c>
-      <c r="C18" s="41">
-        <v>0</v>
-      </c>
-      <c r="D18" s="41">
-        <v>1</v>
-      </c>
-      <c r="E18" s="41" t="s">
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="43" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="47"/>
     </row>
     <row r="19" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
     </row>
     <row r="20" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="47">
+      <c r="B20" s="36">
         <v>15</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="36">
         <v>14</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="36">
         <v>13</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="36">
         <v>12</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="36">
         <v>11</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="36">
         <v>10</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="36">
         <v>9</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="36">
         <v>8</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="36">
         <v>7</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="36">
         <v>6</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="36">
         <v>5</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="36">
         <v>4</v>
       </c>
-      <c r="N20" s="47">
+      <c r="N20" s="36">
         <v>3</v>
       </c>
-      <c r="O20" s="47">
+      <c r="O20" s="36">
         <v>2</v>
       </c>
-      <c r="P20" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="47">
+      <c r="P20" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="41">
-        <v>1</v>
-      </c>
-      <c r="C21" s="41">
-        <v>1</v>
-      </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
-        <v>0</v>
-      </c>
-      <c r="F21" s="41">
-        <v>0</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43" t="s">
+      <c r="B21" s="34">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="E21" s="34">
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="43" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="43" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="47"/>
     </row>
     <row r="22" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="47">
+      <c r="B23" s="36">
         <v>15</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="36">
         <v>14</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="36">
         <v>13</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="36">
         <v>12</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="36">
         <v>11</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="36">
         <v>10</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="36">
         <v>9</v>
       </c>
-      <c r="I23" s="47">
+      <c r="I23" s="36">
         <v>8</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="36">
         <v>7</v>
       </c>
-      <c r="K23" s="47">
+      <c r="K23" s="36">
         <v>6</v>
       </c>
-      <c r="L23" s="47">
+      <c r="L23" s="36">
         <v>5</v>
       </c>
-      <c r="M23" s="47">
+      <c r="M23" s="36">
         <v>4</v>
       </c>
-      <c r="N23" s="47">
+      <c r="N23" s="36">
         <v>3</v>
       </c>
-      <c r="O23" s="47">
+      <c r="O23" s="36">
         <v>2</v>
       </c>
-      <c r="P23" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="47">
+      <c r="P23" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="41">
-        <v>1</v>
-      </c>
-      <c r="C24" s="41">
-        <v>1</v>
-      </c>
-      <c r="D24" s="41">
-        <v>0</v>
-      </c>
-      <c r="E24" s="41">
-        <v>0</v>
-      </c>
-      <c r="F24" s="41">
-        <v>1</v>
-      </c>
-      <c r="G24" s="43" t="s">
+      <c r="B24" s="34">
+        <v>1</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
+        <v>1</v>
+      </c>
+      <c r="G24" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="43" t="s">
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="43" t="s">
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="47"/>
     </row>
     <row r="25" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="47">
+      <c r="B26" s="36">
         <v>15</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="36">
         <v>14</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="36">
         <v>13</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="36">
         <v>12</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="36">
         <v>11</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="36">
         <v>10</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="36">
         <v>9</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="36">
         <v>8</v>
       </c>
-      <c r="J26" s="47">
+      <c r="J26" s="36">
         <v>7</v>
       </c>
-      <c r="K26" s="47">
+      <c r="K26" s="36">
         <v>6</v>
       </c>
-      <c r="L26" s="47">
+      <c r="L26" s="36">
         <v>5</v>
       </c>
-      <c r="M26" s="47">
+      <c r="M26" s="36">
         <v>4</v>
       </c>
-      <c r="N26" s="47">
+      <c r="N26" s="36">
         <v>3</v>
       </c>
-      <c r="O26" s="47">
+      <c r="O26" s="36">
         <v>2</v>
       </c>
-      <c r="P26" s="47">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="47">
+      <c r="P26" s="36">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="41">
-        <v>1</v>
-      </c>
-      <c r="C27" s="41">
-        <v>1</v>
-      </c>
-      <c r="D27" s="41">
-        <v>1</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="B27" s="34">
+        <v>1</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
+      <c r="D27" s="34">
+        <v>1</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="43" t="s">
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="H27:Q27"/>
     <mergeCell ref="O18:Q18"/>
@@ -6726,20 +6731,6 @@
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
